--- a/data/trans_camb/P1412-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1412-Estudios-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.03695701714048587</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1402459317341743</v>
+        <v>0.1402459317341747</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8417012647197037</v>
+        <v>-0.6085928101160802</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.5089761056928458</v>
+        <v>-0.5277170198134026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.371905275573363</v>
+        <v>-1.187907463459003</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.298317555436249</v>
+        <v>-1.155303796754962</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.6863809711201696</v>
+        <v>-0.7601952468524545</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.5227583375377283</v>
+        <v>-0.6037460167520414</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.516913361453267</v>
+        <v>1.79651122029283</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.131296870058447</v>
+        <v>2.218264980442941</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7852242835051627</v>
+        <v>0.8117480519127264</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5801330466276737</v>
+        <v>0.6064272075015388</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8805656167193695</v>
+        <v>0.8738926907084734</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.033309429123663</v>
+        <v>0.9232979717583866</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>0.0243278630011496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09232032446579416</v>
+        <v>0.0923203244657944</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4425333106593927</v>
+        <v>-0.3694713251760108</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2980395276140122</v>
+        <v>-0.322465176051543</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6342558646376525</v>
+        <v>-0.6011323749746476</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5752331188027761</v>
+        <v>-0.559326936038918</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3764581196468074</v>
+        <v>-0.4132481572729982</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2891802683290264</v>
+        <v>-0.3381704103441847</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.833572840225827</v>
+        <v>2.084343735683055</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.26780555473926</v>
+        <v>2.646766457062442</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7152544762924194</v>
+        <v>0.7290768455234731</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5154812838543872</v>
+        <v>0.5926414126210243</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7442036594452837</v>
+        <v>0.7539845641428274</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9554536700716388</v>
+        <v>0.783244402682752</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5972436520576735</v>
+        <v>-0.4883534952639359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.3583836076510043</v>
+        <v>-0.3381279137478747</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.13730994264521</v>
+        <v>-0.143675579864253</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.0284310248951056</v>
+        <v>-0.008040271562798591</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.2858333087564358</v>
+        <v>-0.277373370415652</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.09094995361079181</v>
+        <v>-0.09858504001321657</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3586091163512896</v>
+        <v>0.3832045422179056</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6037220158227327</v>
+        <v>0.5788885647497436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4225843176829899</v>
+        <v>0.4038266899678946</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5408629132416324</v>
+        <v>0.5556366567494644</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2746853157124948</v>
+        <v>0.2832739702401122</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4500179836312292</v>
+        <v>0.4597110411499961</v>
       </c>
     </row>
     <row r="13">
@@ -873,20 +873,20 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7351832367755983</v>
+        <v>-0.7261385602652968</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4934607846872631</v>
+        <v>-0.511437792393953</v>
       </c>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>-0.4954065352151794</v>
+        <v>-0.3630426385599196</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6378471332589561</v>
+        <v>-0.6254443380688117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2200253580348077</v>
+        <v>-0.267614118634305</v>
       </c>
     </row>
     <row r="15">
@@ -897,18 +897,18 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.558412043929653</v>
+        <v>1.511018790943146</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.855921494071467</v>
+        <v>2.416636345733323</v>
       </c>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>1.637053575179733</v>
+        <v>1.607910568826255</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.711282997107308</v>
+        <v>2.680946598328676</v>
       </c>
     </row>
     <row r="16">
@@ -926,7 +926,7 @@
         <v>0.7063510169572429</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9161522999663451</v>
+        <v>0.916152299966345</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-0.04273132518347428</v>
@@ -949,22 +949,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1689354749329098</v>
+        <v>0.1681069535176926</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4599670992935493</v>
+        <v>0.4656527307156338</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9027695941687345</v>
+        <v>-0.736689270867303</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.9601835890242197</v>
+        <v>-1.055494875895068</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.07415363883011783</v>
+        <v>-0.07214407931204124</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03024581155168658</v>
+        <v>0.02373300503912012</v>
       </c>
     </row>
     <row r="18">
@@ -975,22 +975,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.170215973180682</v>
+        <v>1.927665405229968</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.716537010118341</v>
+        <v>1.701777347504634</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3762194467727301</v>
+        <v>0.3750181054329221</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2692805063025555</v>
+        <v>0.2603729118993072</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.024984160961158</v>
+        <v>0.9550176852943284</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8227348718778998</v>
+        <v>0.7942659717368273</v>
       </c>
     </row>
     <row r="19">
@@ -1072,7 +1072,7 @@
         <v>-0.1550926301709071</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.1349083312932882</v>
+        <v>-0.1349083312932881</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>-0.02901598907748305</v>
@@ -1089,22 +1089,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3409689142620683</v>
+        <v>-0.338233986632444</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1617013314892406</v>
+        <v>-0.163469257926349</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.5325414158999117</v>
+        <v>-0.5379641338377124</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4988900601365934</v>
+        <v>-0.5188595465067105</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.294730616262476</v>
+        <v>-0.3197802624108157</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.1988784101036351</v>
+        <v>-0.2136716647714514</v>
       </c>
     </row>
     <row r="24">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5015381038244984</v>
+        <v>0.5013950151576164</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.718672451427295</v>
+        <v>0.6629275216006258</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2589878559408108</v>
+        <v>0.2014719971308622</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.183652181592688</v>
+        <v>0.1692329430556092</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.252083923208445</v>
+        <v>0.253433377889047</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3102291815281877</v>
+        <v>0.3260497514956297</v>
       </c>
     </row>
     <row r="25">
@@ -1150,7 +1150,7 @@
         <v>-0.2221309599331823</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.1932220576834557</v>
+        <v>-0.1932220576834556</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.04234927786703097</v>
@@ -1167,22 +1167,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3748720822338621</v>
+        <v>-0.3987664966882365</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1918941240549761</v>
+        <v>-0.1812774778930556</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5855842833215238</v>
+        <v>-0.608784354054374</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5274794961411172</v>
+        <v>-0.5390025494482253</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.349964321950628</v>
+        <v>-0.3989848620190408</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2378086416751597</v>
+        <v>-0.261897931192161</v>
       </c>
     </row>
     <row r="27">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.113568159897767</v>
+        <v>1.07979210532954</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.524411935880212</v>
+        <v>1.3928888911741</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6356082682742175</v>
+        <v>0.4177488352088654</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3951495499386475</v>
+        <v>0.3646047397301145</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4542226838699267</v>
+        <v>0.4799511729222742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5749267190305523</v>
+        <v>0.6200901567675526</v>
       </c>
     </row>
     <row r="28">
